--- a/documentacion/Carta Gantt EDD.xlsx
+++ b/documentacion/Carta Gantt EDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Escritorio\U\EDD\Alg-Busq\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D45A43AF-E7E9-4702-82DD-F8553782B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5336137-7ED1-4382-A42A-3DB84362CD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carta Gantt EDD" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
-  <si>
-    <t>Carta Gantt Proyecto Integrador EDD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>Abril</t>
   </si>
@@ -208,15 +205,9 @@
     <t>Nicolas Vega; Diego Molina; Franco Comas; Gabriel Cid</t>
   </si>
   <si>
-    <t>Nicolas Vega; Franco Comas; Diego Molina; Benjamin Kiel</t>
-  </si>
-  <si>
     <t>Franco Comas; Benjamin Kiel</t>
   </si>
   <si>
-    <t>Diego Molina; Gabriel Cid</t>
-  </si>
-  <si>
     <t>Diego Molina; Franco Comas</t>
   </si>
   <si>
@@ -224,12 +215,15 @@
   </si>
   <si>
     <t>Indicios para la documentación</t>
+  </si>
+  <si>
+    <t>Franco Comas; Diego Molina; Benjamin Kiel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1217,112 +1211,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="29.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" customWidth="1"/>
-    <col min="14" max="14" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>1</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>2</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
       <c r="O3" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="J4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>13</v>
-      </c>
       <c r="N4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>11</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>45042</v>
@@ -1331,20 +1320,20 @@
         <v>45069</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>45042</v>
@@ -1353,30 +1342,30 @@
         <v>45081</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>45061</v>
@@ -1385,21 +1374,21 @@
         <v>45081</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>45068</v>
@@ -1408,21 +1397,21 @@
         <v>45081</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>45078</v>
@@ -1431,15 +1420,15 @@
         <v>45081</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>45080</v>
@@ -1448,18 +1437,18 @@
         <v>45088</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>45086</v>
@@ -1468,15 +1457,15 @@
         <v>45088</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>45086</v>
@@ -1485,18 +1474,18 @@
         <v>45088</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>45088</v>
@@ -1505,18 +1494,18 @@
         <v>45099</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>45088</v>
@@ -1525,18 +1514,18 @@
         <v>45099</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>45096</v>
@@ -1545,15 +1534,15 @@
         <v>45099</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1">
         <v>45098</v>
@@ -1562,18 +1551,18 @@
         <v>45099</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>45100</v>
@@ -1582,15 +1571,15 @@
         <v>45102</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>45100</v>
@@ -1599,15 +1588,15 @@
         <v>45102</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1">
         <v>45103</v>
@@ -1616,15 +1605,15 @@
         <v>45106</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
         <v>45103</v>
@@ -1633,15 +1622,15 @@
         <v>45106</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>45106</v>
@@ -1650,18 +1639,18 @@
         <v>45107</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1">
         <v>45108</v>
@@ -1670,18 +1659,18 @@
         <v>45112</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1">
         <v>45113</v>
@@ -1690,15 +1679,15 @@
         <v>45116</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1">
         <v>45117</v>
@@ -1707,10 +1696,10 @@
         <v>45118</v>
       </c>
       <c r="O24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
